--- a/biology/Botanique/Classification_de_Cronquist/Classification_de_Cronquist.xlsx
+++ b/biology/Botanique/Classification_de_Cronquist/Classification_de_Cronquist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification de Cronquist est une classification classique des angiospermes. Elle est peut-être la dernière version des classifications majeures basées essentiellement sur des critères morphologiques, anatomiques et chimiques, et qui ignore donc les critères de la classification phylogénétique. Elle est encore plus ou moins utilisée dans certains ouvrages et bases de données.
 Elle est publiée par Arthur Cronquist dans
-The Evolution and Classification of Flowering Plants (1968, 1988[1]),
+The Evolution and Classification of Flowering Plants (1968, 1988),
 mais surtout dans le magnum opus
-An Integrated System of Classification of Flowering Plants (1981)[2].
+An Integrated System of Classification of Flowering Plants (1981).
 Selon le livre de 1981, la composition est :
 Magnoliophyta (Angiospermes)
 classe Magnoliopsida (= Dicotylédones)
